--- a/Blogs/异步与协程/示意图.xlsx
+++ b/Blogs/异步与协程/示意图.xlsx
@@ -219,8 +219,8 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="3124200" y="1638300"/>
-          <a:ext cx="381000" cy="2533650"/>
+          <a:off x="3102429" y="1679493"/>
+          <a:ext cx="375557" cy="2597727"/>
           <a:chOff x="3095625" y="1362075"/>
           <a:chExt cx="381000" cy="2533650"/>
         </a:xfrm>
@@ -1162,6 +1162,4188 @@
     </xdr:sp>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>34</xdr:row>
+      <xdr:rowOff>9525</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>39</xdr:row>
+      <xdr:rowOff>28575</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="22" name="直接箭头连接符 21"/>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="3429000" y="6162675"/>
+          <a:ext cx="0" cy="923925"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln w="28575">
+          <a:solidFill>
+            <a:schemeClr val="tx1"/>
+          </a:solidFill>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>371475</xdr:colOff>
+      <xdr:row>32</xdr:row>
+      <xdr:rowOff>19050</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="607859" cy="283411"/>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="23" name="文本框 22"/>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="3114675" y="5810250"/>
+          <a:ext cx="607859" cy="283411"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="none" rtlCol="0" anchor="t">
+          <a:spAutoFit/>
+        </a:bodyPr>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1100"/>
+            <a:t>主线程</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>66675</xdr:colOff>
+      <xdr:row>39</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>57150</xdr:colOff>
+      <xdr:row>39</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="25" name="直接箭头连接符 24"/>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="3495675" y="7058025"/>
+          <a:ext cx="1362075" cy="0"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln w="28575">
+          <a:solidFill>
+            <a:schemeClr val="tx1"/>
+          </a:solidFill>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>76200</xdr:colOff>
+      <xdr:row>39</xdr:row>
+      <xdr:rowOff>19050</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="1747979" cy="627864"/>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="27" name="文本框 26"/>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="4876800" y="7077075"/>
+          <a:ext cx="1747979" cy="627864"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="none" rtlCol="0" anchor="t">
+          <a:spAutoFit/>
+        </a:bodyPr>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1100"/>
+            <a:t>执行匿名函数</a:t>
+          </a:r>
+          <a:endParaRPr lang="en-US" altLang="zh-CN" sz="1100"/>
+        </a:p>
+        <a:p>
+          <a:pPr marL="0" marR="0" lvl="0" indent="0" defTabSz="914400" eaLnBrk="1" fontAlgn="auto" latinLnBrk="0" hangingPunct="1">
+            <a:lnSpc>
+              <a:spcPct val="100000"/>
+            </a:lnSpc>
+            <a:spcBef>
+              <a:spcPts val="0"/>
+            </a:spcBef>
+            <a:spcAft>
+              <a:spcPts val="0"/>
+            </a:spcAft>
+            <a:buClrTx/>
+            <a:buSzTx/>
+            <a:buFontTx/>
+            <a:buNone/>
+            <a:tabLst/>
+            <a:defRPr/>
+          </a:pPr>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100" b="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>console.log('before await');</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:endParaRPr lang="zh-CN" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>19050</xdr:colOff>
+      <xdr:row>39</xdr:row>
+      <xdr:rowOff>76200</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>19050</xdr:colOff>
+      <xdr:row>42</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="28" name="直接箭头连接符 27"/>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="4819650" y="7134225"/>
+          <a:ext cx="0" cy="466725"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln w="28575">
+          <a:solidFill>
+            <a:schemeClr val="tx1"/>
+          </a:solidFill>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>66675</xdr:colOff>
+      <xdr:row>41</xdr:row>
+      <xdr:rowOff>171450</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>38100</xdr:colOff>
+      <xdr:row>42</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="30" name="直接箭头连接符 29"/>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="4867275" y="7591425"/>
+          <a:ext cx="2714625" cy="9525"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln w="28575">
+          <a:solidFill>
+            <a:schemeClr val="tx1"/>
+          </a:solidFill>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>142875</xdr:colOff>
+      <xdr:row>52</xdr:row>
+      <xdr:rowOff>171450</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="1145442" cy="264560"/>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="35" name="文本框 34"/>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="6315075" y="9582150"/>
+          <a:ext cx="1145442" cy="264560"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="none" rtlCol="0" anchor="t">
+          <a:spAutoFit/>
+        </a:bodyPr>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100"/>
+            <a:t>await PromiseAll</a:t>
+          </a:r>
+          <a:endParaRPr lang="zh-CN" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>9525</xdr:colOff>
+      <xdr:row>42</xdr:row>
+      <xdr:rowOff>104775</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>9525</xdr:colOff>
+      <xdr:row>45</xdr:row>
+      <xdr:rowOff>28575</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="37" name="直接箭头连接符 36"/>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="7553325" y="7705725"/>
+          <a:ext cx="0" cy="466725"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln w="28575">
+          <a:solidFill>
+            <a:schemeClr val="tx1"/>
+          </a:solidFill>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>95250</xdr:colOff>
+      <xdr:row>42</xdr:row>
+      <xdr:rowOff>152400</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="854593" cy="264560"/>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="41" name="文本框 40"/>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="7639050" y="7753350"/>
+          <a:ext cx="854593" cy="264560"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="none" rtlCol="0" anchor="t">
+          <a:spAutoFit/>
+        </a:bodyPr>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100"/>
+            <a:t>await func1</a:t>
+          </a:r>
+          <a:endParaRPr lang="zh-CN" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>666750</xdr:colOff>
+      <xdr:row>45</xdr:row>
+      <xdr:rowOff>9525</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>657226</xdr:colOff>
+      <xdr:row>45</xdr:row>
+      <xdr:rowOff>19050</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="43" name="直接箭头连接符 42"/>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipH="1" flipV="1">
+          <a:off x="4781550" y="8153400"/>
+          <a:ext cx="2733676" cy="9525"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln w="28575">
+          <a:solidFill>
+            <a:schemeClr val="tx1"/>
+          </a:solidFill>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>9525</xdr:colOff>
+      <xdr:row>45</xdr:row>
+      <xdr:rowOff>123825</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>9525</xdr:colOff>
+      <xdr:row>48</xdr:row>
+      <xdr:rowOff>47625</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="44" name="直接箭头连接符 43"/>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="4810125" y="8267700"/>
+          <a:ext cx="0" cy="466725"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln w="28575">
+          <a:solidFill>
+            <a:schemeClr val="tx1"/>
+          </a:solidFill>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>9525</xdr:colOff>
+      <xdr:row>48</xdr:row>
+      <xdr:rowOff>133350</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>48</xdr:row>
+      <xdr:rowOff>142875</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="45" name="直接箭头连接符 44"/>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="4810125" y="8820150"/>
+          <a:ext cx="2733675" cy="9525"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln w="28575">
+          <a:solidFill>
+            <a:schemeClr val="tx1"/>
+          </a:solidFill>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>19050</xdr:colOff>
+      <xdr:row>49</xdr:row>
+      <xdr:rowOff>19050</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>19050</xdr:colOff>
+      <xdr:row>51</xdr:row>
+      <xdr:rowOff>123825</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="47" name="直接箭头连接符 46"/>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="7562850" y="8886825"/>
+          <a:ext cx="0" cy="466725"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln w="28575">
+          <a:solidFill>
+            <a:schemeClr val="tx1"/>
+          </a:solidFill>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>51</xdr:row>
+      <xdr:rowOff>171450</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>657225</xdr:colOff>
+      <xdr:row>51</xdr:row>
+      <xdr:rowOff>171450</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="48" name="直接箭头连接符 47"/>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipH="1">
+          <a:off x="6172200" y="9401175"/>
+          <a:ext cx="1343025" cy="0"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln w="28575">
+          <a:solidFill>
+            <a:schemeClr val="tx1"/>
+          </a:solidFill>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>142875</xdr:colOff>
+      <xdr:row>49</xdr:row>
+      <xdr:rowOff>57150</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="854593" cy="264560"/>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="49" name="文本框 48"/>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="7686675" y="8924925"/>
+          <a:ext cx="854593" cy="264560"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="none" rtlCol="0" anchor="t">
+          <a:spAutoFit/>
+        </a:bodyPr>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100"/>
+            <a:t>await func2</a:t>
+          </a:r>
+          <a:endParaRPr lang="zh-CN" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>52</xdr:row>
+      <xdr:rowOff>104775</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>55</xdr:row>
+      <xdr:rowOff>28575</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="50" name="直接箭头连接符 49"/>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="6172200" y="9515475"/>
+          <a:ext cx="0" cy="466725"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln w="28575">
+          <a:solidFill>
+            <a:schemeClr val="tx1"/>
+          </a:solidFill>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>57150</xdr:colOff>
+      <xdr:row>55</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>619126</xdr:colOff>
+      <xdr:row>55</xdr:row>
+      <xdr:rowOff>19050</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="51" name="直接箭头连接符 50"/>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipH="1" flipV="1">
+          <a:off x="3486150" y="9953625"/>
+          <a:ext cx="2619376" cy="19050"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln w="28575">
+          <a:solidFill>
+            <a:schemeClr val="tx1"/>
+          </a:solidFill>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>55</xdr:row>
+      <xdr:rowOff>66675</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>9525</xdr:colOff>
+      <xdr:row>59</xdr:row>
+      <xdr:rowOff>161925</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="54" name="直接箭头连接符 53"/>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="3429000" y="10020300"/>
+          <a:ext cx="9525" cy="819150"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln w="28575">
+          <a:solidFill>
+            <a:schemeClr val="tx1"/>
+          </a:solidFill>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>39</xdr:row>
+      <xdr:rowOff>85725</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>9527</xdr:colOff>
+      <xdr:row>55</xdr:row>
+      <xdr:rowOff>19050</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="55" name="直接箭头连接符 54"/>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipH="1">
+          <a:off x="3429000" y="7143750"/>
+          <a:ext cx="9527" cy="2828925"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln w="28575">
+          <a:solidFill>
+            <a:schemeClr val="tx1"/>
+          </a:solidFill>
+          <a:prstDash val="dash"/>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>114300</xdr:colOff>
+      <xdr:row>59</xdr:row>
+      <xdr:rowOff>152400</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>28575</xdr:colOff>
+      <xdr:row>59</xdr:row>
+      <xdr:rowOff>161925</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="56" name="直接箭头连接符 55"/>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipV="1">
+          <a:off x="3543300" y="10829925"/>
+          <a:ext cx="4029075" cy="9525"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln w="28575">
+          <a:solidFill>
+            <a:schemeClr val="tx1"/>
+          </a:solidFill>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>19050</xdr:colOff>
+      <xdr:row>60</xdr:row>
+      <xdr:rowOff>57150</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>19050</xdr:colOff>
+      <xdr:row>62</xdr:row>
+      <xdr:rowOff>161925</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="57" name="直接箭头连接符 56"/>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="7562850" y="10915650"/>
+          <a:ext cx="0" cy="466725"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln w="28575">
+          <a:solidFill>
+            <a:schemeClr val="tx1"/>
+          </a:solidFill>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>200025</xdr:colOff>
+      <xdr:row>60</xdr:row>
+      <xdr:rowOff>19050</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="795089" cy="436786"/>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="58" name="文本框 57"/>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="7743825" y="10877550"/>
+          <a:ext cx="795089" cy="436786"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="none" rtlCol="0" anchor="t">
+          <a:spAutoFit/>
+        </a:bodyPr>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100"/>
+            <a:t>func1</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100"/>
+            <a:t>return 100</a:t>
+          </a:r>
+          <a:endParaRPr lang="zh-CN" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>647700</xdr:colOff>
+      <xdr:row>63</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>619125</xdr:colOff>
+      <xdr:row>63</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="59" name="直接箭头连接符 58"/>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipH="1">
+          <a:off x="6134100" y="11401425"/>
+          <a:ext cx="1343025" cy="0"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln w="28575">
+          <a:solidFill>
+            <a:schemeClr val="tx1"/>
+          </a:solidFill>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>666750</xdr:colOff>
+      <xdr:row>63</xdr:row>
+      <xdr:rowOff>47625</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>666750</xdr:colOff>
+      <xdr:row>65</xdr:row>
+      <xdr:rowOff>152400</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="60" name="直接箭头连接符 59"/>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="6153150" y="11449050"/>
+          <a:ext cx="0" cy="466725"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln w="28575">
+          <a:solidFill>
+            <a:schemeClr val="tx1"/>
+          </a:solidFill>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>19050</xdr:colOff>
+      <xdr:row>66</xdr:row>
+      <xdr:rowOff>9525</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>9525</xdr:colOff>
+      <xdr:row>66</xdr:row>
+      <xdr:rowOff>9525</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="61" name="直接箭头连接符 60"/>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="6191250" y="11953875"/>
+          <a:ext cx="1362075" cy="0"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln w="28575">
+          <a:solidFill>
+            <a:schemeClr val="tx1"/>
+          </a:solidFill>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>9525</xdr:colOff>
+      <xdr:row>66</xdr:row>
+      <xdr:rowOff>66675</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>9525</xdr:colOff>
+      <xdr:row>68</xdr:row>
+      <xdr:rowOff>171450</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="62" name="直接箭头连接符 61"/>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="7553325" y="12011025"/>
+          <a:ext cx="0" cy="466725"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln w="28575">
+          <a:solidFill>
+            <a:schemeClr val="tx1"/>
+          </a:solidFill>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>152400</xdr:colOff>
+      <xdr:row>66</xdr:row>
+      <xdr:rowOff>19050</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="795089" cy="436786"/>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="63" name="文本框 62"/>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="7696200" y="11963400"/>
+          <a:ext cx="795089" cy="436786"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="none" rtlCol="0" anchor="t">
+          <a:spAutoFit/>
+        </a:bodyPr>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100"/>
+            <a:t>func2</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100"/>
+            <a:t>return 200</a:t>
+          </a:r>
+          <a:endParaRPr lang="zh-CN" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>68</xdr:row>
+      <xdr:rowOff>171450</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>657225</xdr:colOff>
+      <xdr:row>68</xdr:row>
+      <xdr:rowOff>171450</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="64" name="直接箭头连接符 63"/>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipH="1">
+          <a:off x="6172200" y="12477750"/>
+          <a:ext cx="1343025" cy="0"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln w="28575">
+          <a:solidFill>
+            <a:schemeClr val="tx1"/>
+          </a:solidFill>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>9525</xdr:colOff>
+      <xdr:row>69</xdr:row>
+      <xdr:rowOff>38100</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>9525</xdr:colOff>
+      <xdr:row>71</xdr:row>
+      <xdr:rowOff>142875</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="65" name="直接箭头连接符 64"/>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="6181725" y="12525375"/>
+          <a:ext cx="0" cy="466725"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln w="28575">
+          <a:solidFill>
+            <a:schemeClr val="tx1"/>
+          </a:solidFill>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>19050</xdr:colOff>
+      <xdr:row>72</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>676275</xdr:colOff>
+      <xdr:row>72</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="66" name="直接箭头连接符 65"/>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipH="1">
+          <a:off x="4819650" y="13030200"/>
+          <a:ext cx="1343025" cy="0"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln w="28575">
+          <a:solidFill>
+            <a:schemeClr val="tx1"/>
+          </a:solidFill>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>142875</xdr:colOff>
+      <xdr:row>69</xdr:row>
+      <xdr:rowOff>104775</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="908903" cy="436786"/>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="67" name="文本框 66"/>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="6315075" y="12592050"/>
+          <a:ext cx="908903" cy="436786"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="none" rtlCol="0" anchor="t">
+          <a:spAutoFit/>
+        </a:bodyPr>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100"/>
+            <a:t>PromiseAll</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100"/>
+            <a:t>return result</a:t>
+          </a:r>
+          <a:endParaRPr lang="zh-CN" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>676275</xdr:colOff>
+      <xdr:row>72</xdr:row>
+      <xdr:rowOff>28575</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>676275</xdr:colOff>
+      <xdr:row>75</xdr:row>
+      <xdr:rowOff>123825</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="68" name="直接箭头连接符 67"/>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="4791075" y="13058775"/>
+          <a:ext cx="0" cy="638175"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln w="28575">
+          <a:solidFill>
+            <a:schemeClr val="tx1"/>
+          </a:solidFill>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>85725</xdr:colOff>
+      <xdr:row>72</xdr:row>
+      <xdr:rowOff>95250</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="1742978" cy="627864"/>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="69" name="文本框 68"/>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="4886325" y="13125450"/>
+          <a:ext cx="1742978" cy="627864"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="none" rtlCol="0" anchor="t">
+          <a:spAutoFit/>
+        </a:bodyPr>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1100"/>
+            <a:t>匿名函数</a:t>
+          </a:r>
+          <a:endParaRPr lang="en-US" altLang="zh-CN" sz="1100"/>
+        </a:p>
+        <a:p>
+          <a:pPr marL="0" marR="0" lvl="0" indent="0" defTabSz="914400" eaLnBrk="1" fontAlgn="auto" latinLnBrk="0" hangingPunct="1">
+            <a:lnSpc>
+              <a:spcPct val="100000"/>
+            </a:lnSpc>
+            <a:spcBef>
+              <a:spcPts val="0"/>
+            </a:spcBef>
+            <a:spcAft>
+              <a:spcPts val="0"/>
+            </a:spcAft>
+            <a:buClrTx/>
+            <a:buSzTx/>
+            <a:buFontTx/>
+            <a:buNone/>
+            <a:tabLst/>
+            <a:defRPr/>
+          </a:pPr>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100" b="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>console.log('after await');</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr marL="0" marR="0" lvl="0" indent="0" defTabSz="914400" eaLnBrk="1" fontAlgn="auto" latinLnBrk="0" hangingPunct="1">
+            <a:lnSpc>
+              <a:spcPct val="100000"/>
+            </a:lnSpc>
+            <a:spcBef>
+              <a:spcPts val="0"/>
+            </a:spcBef>
+            <a:spcAft>
+              <a:spcPts val="0"/>
+            </a:spcAft>
+            <a:buClrTx/>
+            <a:buSzTx/>
+            <a:buFontTx/>
+            <a:buNone/>
+            <a:tabLst/>
+            <a:defRPr/>
+          </a:pPr>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100" b="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>console.log('result', result);</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>57150</xdr:colOff>
+      <xdr:row>75</xdr:row>
+      <xdr:rowOff>171450</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>28575</xdr:colOff>
+      <xdr:row>75</xdr:row>
+      <xdr:rowOff>171450</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="70" name="直接箭头连接符 69"/>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipH="1">
+          <a:off x="3486150" y="13744575"/>
+          <a:ext cx="1343025" cy="0"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln w="28575">
+          <a:solidFill>
+            <a:schemeClr val="tx1"/>
+          </a:solidFill>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>9525</xdr:colOff>
+      <xdr:row>76</xdr:row>
+      <xdr:rowOff>38100</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>9525</xdr:colOff>
+      <xdr:row>81</xdr:row>
+      <xdr:rowOff>57150</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="71" name="直接箭头连接符 70"/>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="3438525" y="13792200"/>
+          <a:ext cx="0" cy="923925"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln w="28575">
+          <a:solidFill>
+            <a:schemeClr val="tx1"/>
+          </a:solidFill>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>457200</xdr:colOff>
+      <xdr:row>81</xdr:row>
+      <xdr:rowOff>66675</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="466794" cy="283411"/>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="72" name="文本框 71"/>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="3200400" y="14725650"/>
+          <a:ext cx="466794" cy="283411"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="none" rtlCol="0" anchor="t">
+          <a:spAutoFit/>
+        </a:bodyPr>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1100"/>
+            <a:t>结束</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>60</xdr:row>
+      <xdr:rowOff>85725</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>9526</xdr:colOff>
+      <xdr:row>75</xdr:row>
+      <xdr:rowOff>38100</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="73" name="直接箭头连接符 72"/>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="3429000" y="10944225"/>
+          <a:ext cx="9526" cy="2667000"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln w="28575">
+          <a:solidFill>
+            <a:schemeClr val="tx1"/>
+          </a:solidFill>
+          <a:prstDash val="dash"/>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>190499</xdr:colOff>
+      <xdr:row>44</xdr:row>
+      <xdr:rowOff>19049</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>18</xdr:col>
+      <xdr:colOff>28575</xdr:colOff>
+      <xdr:row>54</xdr:row>
+      <xdr:rowOff>28574</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="75" name="对角圆角矩形 74"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="9105899" y="7981949"/>
+          <a:ext cx="3267076" cy="1819275"/>
+        </a:xfrm>
+        <a:prstGeom prst="round2DiagRect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1200" b="0">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>(async function () {</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1200" b="0">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>    console.log('before await');</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1200" b="0">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>    let result = [];</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1200" b="0">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>    result = await PromiseAll([func1(), func2()]);</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1200" b="0">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>    console.log('after await');</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1200" b="0">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>    console.log('result', result);</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1200" b="0">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>})();</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1200" b="0">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>console.log('end...');</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr lang="zh-CN" altLang="en-US" sz="1200"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>104775</xdr:colOff>
+      <xdr:row>56</xdr:row>
+      <xdr:rowOff>104775</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="1344535" cy="264560"/>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="77" name="文本框 76"/>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="3533775" y="10239375"/>
+          <a:ext cx="1344535" cy="264560"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="none" rtlCol="0" anchor="t">
+          <a:spAutoFit/>
+        </a:bodyPr>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100" b="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>console.log('end...');</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>24</xdr:col>
+      <xdr:colOff>19050</xdr:colOff>
+      <xdr:row>36</xdr:row>
+      <xdr:rowOff>171450</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>24</xdr:col>
+      <xdr:colOff>19050</xdr:colOff>
+      <xdr:row>42</xdr:row>
+      <xdr:rowOff>9525</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="88" name="直接箭头连接符 87"/>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="16478250" y="6686550"/>
+          <a:ext cx="0" cy="923925"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln w="28575">
+          <a:solidFill>
+            <a:schemeClr val="tx1"/>
+          </a:solidFill>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>23</xdr:col>
+      <xdr:colOff>390525</xdr:colOff>
+      <xdr:row>35</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="607859" cy="283411"/>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="89" name="文本框 88"/>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="16163925" y="6334125"/>
+          <a:ext cx="607859" cy="283411"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="none" rtlCol="0" anchor="t">
+          <a:spAutoFit/>
+        </a:bodyPr>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1100"/>
+            <a:t>主线程</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>24</xdr:col>
+      <xdr:colOff>85725</xdr:colOff>
+      <xdr:row>41</xdr:row>
+      <xdr:rowOff>161925</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>26</xdr:col>
+      <xdr:colOff>76200</xdr:colOff>
+      <xdr:row>41</xdr:row>
+      <xdr:rowOff>161925</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="90" name="直接箭头连接符 89"/>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="16544925" y="7581900"/>
+          <a:ext cx="1362075" cy="0"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln w="28575">
+          <a:solidFill>
+            <a:schemeClr val="tx1"/>
+          </a:solidFill>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>26</xdr:col>
+      <xdr:colOff>38100</xdr:colOff>
+      <xdr:row>42</xdr:row>
+      <xdr:rowOff>57150</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>26</xdr:col>
+      <xdr:colOff>38100</xdr:colOff>
+      <xdr:row>44</xdr:row>
+      <xdr:rowOff>161925</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="91" name="直接箭头连接符 90"/>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="17868900" y="7658100"/>
+          <a:ext cx="0" cy="466725"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln w="28575">
+          <a:solidFill>
+            <a:schemeClr val="tx1"/>
+          </a:solidFill>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>26</xdr:col>
+      <xdr:colOff>85725</xdr:colOff>
+      <xdr:row>44</xdr:row>
+      <xdr:rowOff>152400</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>28</xdr:col>
+      <xdr:colOff>76200</xdr:colOff>
+      <xdr:row>44</xdr:row>
+      <xdr:rowOff>152400</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="92" name="直接箭头连接符 91"/>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="17916525" y="8115300"/>
+          <a:ext cx="1362075" cy="0"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln w="28575">
+          <a:solidFill>
+            <a:schemeClr val="tx1"/>
+          </a:solidFill>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>28</xdr:col>
+      <xdr:colOff>28575</xdr:colOff>
+      <xdr:row>45</xdr:row>
+      <xdr:rowOff>57150</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>28</xdr:col>
+      <xdr:colOff>28575</xdr:colOff>
+      <xdr:row>47</xdr:row>
+      <xdr:rowOff>161925</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="94" name="直接箭头连接符 93"/>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="19230975" y="8201025"/>
+          <a:ext cx="0" cy="466725"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln w="28575">
+          <a:solidFill>
+            <a:schemeClr val="tx1"/>
+          </a:solidFill>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>28</xdr:col>
+      <xdr:colOff>114300</xdr:colOff>
+      <xdr:row>45</xdr:row>
+      <xdr:rowOff>123825</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="854593" cy="264560"/>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="95" name="文本框 94"/>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="19316700" y="8267700"/>
+          <a:ext cx="854593" cy="264560"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="none" rtlCol="0" anchor="t">
+          <a:spAutoFit/>
+        </a:bodyPr>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100"/>
+            <a:t>await func1</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>24</xdr:col>
+      <xdr:colOff>28575</xdr:colOff>
+      <xdr:row>47</xdr:row>
+      <xdr:rowOff>171450</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>27</xdr:col>
+      <xdr:colOff>628651</xdr:colOff>
+      <xdr:row>47</xdr:row>
+      <xdr:rowOff>171450</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="96" name="直接箭头连接符 95"/>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipH="1">
+          <a:off x="16487775" y="8677275"/>
+          <a:ext cx="2657476" cy="0"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln w="28575">
+          <a:solidFill>
+            <a:schemeClr val="tx1"/>
+          </a:solidFill>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>24</xdr:col>
+      <xdr:colOff>19050</xdr:colOff>
+      <xdr:row>48</xdr:row>
+      <xdr:rowOff>66675</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>24</xdr:col>
+      <xdr:colOff>19050</xdr:colOff>
+      <xdr:row>53</xdr:row>
+      <xdr:rowOff>85725</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="98" name="直接箭头连接符 97"/>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="16478250" y="8753475"/>
+          <a:ext cx="0" cy="923925"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln w="28575">
+          <a:solidFill>
+            <a:schemeClr val="tx1"/>
+          </a:solidFill>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>24</xdr:col>
+      <xdr:colOff>57150</xdr:colOff>
+      <xdr:row>53</xdr:row>
+      <xdr:rowOff>161925</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>28</xdr:col>
+      <xdr:colOff>9525</xdr:colOff>
+      <xdr:row>53</xdr:row>
+      <xdr:rowOff>161925</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="99" name="直接箭头连接符 98"/>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="16516350" y="9753600"/>
+          <a:ext cx="2695575" cy="0"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln w="28575">
+          <a:solidFill>
+            <a:schemeClr val="tx1"/>
+          </a:solidFill>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>25</xdr:col>
+      <xdr:colOff>666750</xdr:colOff>
+      <xdr:row>57</xdr:row>
+      <xdr:rowOff>104775</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>25</xdr:col>
+      <xdr:colOff>666750</xdr:colOff>
+      <xdr:row>60</xdr:row>
+      <xdr:rowOff>28575</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="100" name="直接箭头连接符 99"/>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="17811750" y="10420350"/>
+          <a:ext cx="0" cy="466725"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln w="28575">
+          <a:solidFill>
+            <a:schemeClr val="tx1"/>
+          </a:solidFill>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>23</xdr:col>
+      <xdr:colOff>447675</xdr:colOff>
+      <xdr:row>79</xdr:row>
+      <xdr:rowOff>114300</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="466794" cy="283411"/>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="105" name="文本框 104"/>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="16221075" y="14411325"/>
+          <a:ext cx="466794" cy="283411"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="none" rtlCol="0" anchor="t">
+          <a:spAutoFit/>
+        </a:bodyPr>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1100"/>
+            <a:t>结束</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>24</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>42</xdr:row>
+      <xdr:rowOff>85725</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>24</xdr:col>
+      <xdr:colOff>9526</xdr:colOff>
+      <xdr:row>47</xdr:row>
+      <xdr:rowOff>133350</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="106" name="直接箭头连接符 105"/>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="16459200" y="7686675"/>
+          <a:ext cx="9526" cy="952500"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln w="28575">
+          <a:solidFill>
+            <a:schemeClr val="tx1"/>
+          </a:solidFill>
+          <a:prstDash val="dash"/>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>24</xdr:col>
+      <xdr:colOff>9525</xdr:colOff>
+      <xdr:row>54</xdr:row>
+      <xdr:rowOff>57150</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>24</xdr:col>
+      <xdr:colOff>9527</xdr:colOff>
+      <xdr:row>63</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="108" name="直接箭头连接符 107"/>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipH="1">
+          <a:off x="16468725" y="9829800"/>
+          <a:ext cx="2" cy="1571625"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln w="28575">
+          <a:solidFill>
+            <a:schemeClr val="tx1"/>
+          </a:solidFill>
+          <a:prstDash val="dash"/>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>28</xdr:col>
+      <xdr:colOff>85725</xdr:colOff>
+      <xdr:row>60</xdr:row>
+      <xdr:rowOff>133350</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="854593" cy="264560"/>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="111" name="文本框 110"/>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="19288125" y="10991850"/>
+          <a:ext cx="854593" cy="264560"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="none" rtlCol="0" anchor="t">
+          <a:spAutoFit/>
+        </a:bodyPr>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100"/>
+            <a:t>await func2</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>30</xdr:col>
+      <xdr:colOff>38099</xdr:colOff>
+      <xdr:row>44</xdr:row>
+      <xdr:rowOff>28574</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>34</xdr:col>
+      <xdr:colOff>561975</xdr:colOff>
+      <xdr:row>54</xdr:row>
+      <xdr:rowOff>38099</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="112" name="对角圆角矩形 111"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="20612099" y="7991474"/>
+          <a:ext cx="3267076" cy="1819275"/>
+        </a:xfrm>
+        <a:prstGeom prst="round2DiagRect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100" b="0">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>(async function () {</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100" b="0">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>    console.log('before await');</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100" b="0">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>    let result = [];</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100" b="0">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>    result[0] = await func1();</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100" b="0">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>    result[1] = await func2();</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100" b="0">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>    console.log('after await');</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100" b="0">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>    console.log('result', result);</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100" b="0">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>})();</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100" b="0">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>console.log('end...');</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr lang="zh-CN" altLang="en-US" sz="1200"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>28</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>54</xdr:row>
+      <xdr:rowOff>66675</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>28</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>56</xdr:row>
+      <xdr:rowOff>171450</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="117" name="直接箭头连接符 116"/>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="19202400" y="9839325"/>
+          <a:ext cx="0" cy="466725"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln w="28575">
+          <a:solidFill>
+            <a:schemeClr val="tx1"/>
+          </a:solidFill>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>26</xdr:col>
+      <xdr:colOff>142875</xdr:colOff>
+      <xdr:row>41</xdr:row>
+      <xdr:rowOff>152400</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="1747979" cy="627864"/>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="118" name="文本框 117"/>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="17973675" y="7572375"/>
+          <a:ext cx="1747979" cy="627864"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="none" rtlCol="0" anchor="t">
+          <a:spAutoFit/>
+        </a:bodyPr>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1100"/>
+            <a:t>执行匿名函数</a:t>
+          </a:r>
+          <a:endParaRPr lang="en-US" altLang="zh-CN" sz="1100"/>
+        </a:p>
+        <a:p>
+          <a:pPr marL="0" marR="0" lvl="0" indent="0" defTabSz="914400" eaLnBrk="1" fontAlgn="auto" latinLnBrk="0" hangingPunct="1">
+            <a:lnSpc>
+              <a:spcPct val="100000"/>
+            </a:lnSpc>
+            <a:spcBef>
+              <a:spcPts val="0"/>
+            </a:spcBef>
+            <a:spcAft>
+              <a:spcPts val="0"/>
+            </a:spcAft>
+            <a:buClrTx/>
+            <a:buSzTx/>
+            <a:buFontTx/>
+            <a:buNone/>
+            <a:tabLst/>
+            <a:defRPr/>
+          </a:pPr>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100" b="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>console.log('before await');</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:endParaRPr lang="zh-CN" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>26</xdr:col>
+      <xdr:colOff>47625</xdr:colOff>
+      <xdr:row>60</xdr:row>
+      <xdr:rowOff>9525</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>28</xdr:col>
+      <xdr:colOff>38100</xdr:colOff>
+      <xdr:row>60</xdr:row>
+      <xdr:rowOff>9525</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="119" name="直接箭头连接符 118"/>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="17878425" y="10868025"/>
+          <a:ext cx="1362075" cy="0"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln w="28575">
+          <a:solidFill>
+            <a:schemeClr val="tx1"/>
+          </a:solidFill>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>25</xdr:col>
+      <xdr:colOff>657225</xdr:colOff>
+      <xdr:row>57</xdr:row>
+      <xdr:rowOff>38100</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>27</xdr:col>
+      <xdr:colOff>628650</xdr:colOff>
+      <xdr:row>57</xdr:row>
+      <xdr:rowOff>38100</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="121" name="直接箭头连接符 120"/>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipH="1">
+          <a:off x="17802225" y="10353675"/>
+          <a:ext cx="1343025" cy="0"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln w="28575">
+          <a:solidFill>
+            <a:schemeClr val="tx1"/>
+          </a:solidFill>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>24</xdr:col>
+      <xdr:colOff>133350</xdr:colOff>
+      <xdr:row>50</xdr:row>
+      <xdr:rowOff>19050</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="1344535" cy="264560"/>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="124" name="文本框 123"/>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="16592550" y="9067800"/>
+          <a:ext cx="1344535" cy="264560"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="none" rtlCol="0" anchor="t">
+          <a:spAutoFit/>
+        </a:bodyPr>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100"/>
+            <a:t>console.log('end...');</a:t>
+          </a:r>
+          <a:endParaRPr lang="zh-CN" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>28</xdr:col>
+      <xdr:colOff>104775</xdr:colOff>
+      <xdr:row>54</xdr:row>
+      <xdr:rowOff>76200</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="795089" cy="436786"/>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="126" name="文本框 125"/>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="19307175" y="9848850"/>
+          <a:ext cx="795089" cy="436786"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="none" rtlCol="0" anchor="t">
+          <a:spAutoFit/>
+        </a:bodyPr>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100"/>
+            <a:t>func1 </a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100"/>
+            <a:t>return 100</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>28</xdr:col>
+      <xdr:colOff>9525</xdr:colOff>
+      <xdr:row>60</xdr:row>
+      <xdr:rowOff>85725</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>28</xdr:col>
+      <xdr:colOff>9525</xdr:colOff>
+      <xdr:row>63</xdr:row>
+      <xdr:rowOff>9525</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="127" name="直接箭头连接符 126"/>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="19211925" y="10944225"/>
+          <a:ext cx="0" cy="466725"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln w="28575">
+          <a:solidFill>
+            <a:schemeClr val="tx1"/>
+          </a:solidFill>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>24</xdr:col>
+      <xdr:colOff>28575</xdr:colOff>
+      <xdr:row>63</xdr:row>
+      <xdr:rowOff>9525</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>27</xdr:col>
+      <xdr:colOff>628651</xdr:colOff>
+      <xdr:row>63</xdr:row>
+      <xdr:rowOff>9525</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="128" name="直接箭头连接符 127"/>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipH="1">
+          <a:off x="16487775" y="11410950"/>
+          <a:ext cx="2657476" cy="0"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln w="28575">
+          <a:solidFill>
+            <a:schemeClr val="tx1"/>
+          </a:solidFill>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>24</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>63</xdr:row>
+      <xdr:rowOff>104775</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>24</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>67</xdr:row>
+      <xdr:rowOff>171450</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="130" name="直接箭头连接符 129"/>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="16459200" y="11506200"/>
+          <a:ext cx="0" cy="790575"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln w="28575">
+          <a:solidFill>
+            <a:schemeClr val="tx1"/>
+          </a:solidFill>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>24</xdr:col>
+      <xdr:colOff>38100</xdr:colOff>
+      <xdr:row>67</xdr:row>
+      <xdr:rowOff>171450</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>27</xdr:col>
+      <xdr:colOff>676275</xdr:colOff>
+      <xdr:row>67</xdr:row>
+      <xdr:rowOff>171450</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="132" name="直接箭头连接符 131"/>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="16497300" y="12296775"/>
+          <a:ext cx="2695575" cy="0"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln w="28575">
+          <a:solidFill>
+            <a:schemeClr val="tx1"/>
+          </a:solidFill>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>27</xdr:col>
+      <xdr:colOff>666750</xdr:colOff>
+      <xdr:row>68</xdr:row>
+      <xdr:rowOff>76200</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>27</xdr:col>
+      <xdr:colOff>666750</xdr:colOff>
+      <xdr:row>71</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="133" name="直接箭头连接符 132"/>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="19183350" y="12382500"/>
+          <a:ext cx="0" cy="466725"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln w="28575">
+          <a:solidFill>
+            <a:schemeClr val="tx1"/>
+          </a:solidFill>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>25</xdr:col>
+      <xdr:colOff>638175</xdr:colOff>
+      <xdr:row>71</xdr:row>
+      <xdr:rowOff>47625</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>27</xdr:col>
+      <xdr:colOff>609600</xdr:colOff>
+      <xdr:row>71</xdr:row>
+      <xdr:rowOff>47625</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="134" name="直接箭头连接符 133"/>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipH="1">
+          <a:off x="17783175" y="12896850"/>
+          <a:ext cx="1343025" cy="0"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln w="28575">
+          <a:solidFill>
+            <a:schemeClr val="tx1"/>
+          </a:solidFill>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>28</xdr:col>
+      <xdr:colOff>142875</xdr:colOff>
+      <xdr:row>68</xdr:row>
+      <xdr:rowOff>66675</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="795089" cy="436786"/>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="135" name="文本框 134"/>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="19345275" y="12372975"/>
+          <a:ext cx="795089" cy="436786"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="none" rtlCol="0" anchor="t">
+          <a:spAutoFit/>
+        </a:bodyPr>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100"/>
+            <a:t>func2</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100"/>
+            <a:t>return 200</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>25</xdr:col>
+      <xdr:colOff>676275</xdr:colOff>
+      <xdr:row>71</xdr:row>
+      <xdr:rowOff>152400</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>25</xdr:col>
+      <xdr:colOff>676275</xdr:colOff>
+      <xdr:row>74</xdr:row>
+      <xdr:rowOff>76200</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="136" name="直接箭头连接符 135"/>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="17821275" y="13001625"/>
+          <a:ext cx="0" cy="466725"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln w="28575">
+          <a:solidFill>
+            <a:schemeClr val="tx1"/>
+          </a:solidFill>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>23</xdr:col>
+      <xdr:colOff>657225</xdr:colOff>
+      <xdr:row>74</xdr:row>
+      <xdr:rowOff>161925</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>25</xdr:col>
+      <xdr:colOff>676275</xdr:colOff>
+      <xdr:row>74</xdr:row>
+      <xdr:rowOff>161925</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="137" name="直接箭头连接符 136"/>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipH="1">
+          <a:off x="16430625" y="13554075"/>
+          <a:ext cx="1390650" cy="0"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln w="28575">
+          <a:solidFill>
+            <a:schemeClr val="tx1"/>
+          </a:solidFill>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>23</xdr:col>
+      <xdr:colOff>676275</xdr:colOff>
+      <xdr:row>75</xdr:row>
+      <xdr:rowOff>38100</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>23</xdr:col>
+      <xdr:colOff>676275</xdr:colOff>
+      <xdr:row>79</xdr:row>
+      <xdr:rowOff>104775</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="139" name="直接箭头连接符 138"/>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="16449675" y="13611225"/>
+          <a:ext cx="0" cy="790575"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln w="28575">
+          <a:solidFill>
+            <a:schemeClr val="tx1"/>
+          </a:solidFill>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>23</xdr:col>
+      <xdr:colOff>666752</xdr:colOff>
+      <xdr:row>68</xdr:row>
+      <xdr:rowOff>76200</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>24</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>74</xdr:row>
+      <xdr:rowOff>66675</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="140" name="直接箭头连接符 139"/>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="16440152" y="12382500"/>
+          <a:ext cx="19048" cy="1076325"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln w="28575">
+          <a:solidFill>
+            <a:schemeClr val="tx1"/>
+          </a:solidFill>
+          <a:prstDash val="dash"/>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>26</xdr:col>
+      <xdr:colOff>247526</xdr:colOff>
+      <xdr:row>71</xdr:row>
+      <xdr:rowOff>112073</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="1742978" cy="627864"/>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="150" name="文本框 149"/>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="17936812" y="13286261"/>
+          <a:ext cx="1742978" cy="627864"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="none" rtlCol="0" anchor="t">
+          <a:spAutoFit/>
+        </a:bodyPr>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1100"/>
+            <a:t>匿名函数</a:t>
+          </a:r>
+          <a:endParaRPr lang="en-US" altLang="zh-CN" sz="1100"/>
+        </a:p>
+        <a:p>
+          <a:pPr marL="0" marR="0" lvl="0" indent="0" defTabSz="914400" eaLnBrk="1" fontAlgn="auto" latinLnBrk="0" hangingPunct="1">
+            <a:lnSpc>
+              <a:spcPct val="100000"/>
+            </a:lnSpc>
+            <a:spcBef>
+              <a:spcPts val="0"/>
+            </a:spcBef>
+            <a:spcAft>
+              <a:spcPts val="0"/>
+            </a:spcAft>
+            <a:buClrTx/>
+            <a:buSzTx/>
+            <a:buFontTx/>
+            <a:buNone/>
+            <a:tabLst/>
+            <a:defRPr/>
+          </a:pPr>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100" b="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>console.log('after await');</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr marL="0" marR="0" lvl="0" indent="0" defTabSz="914400" eaLnBrk="1" fontAlgn="auto" latinLnBrk="0" hangingPunct="1">
+            <a:lnSpc>
+              <a:spcPct val="100000"/>
+            </a:lnSpc>
+            <a:spcBef>
+              <a:spcPts val="0"/>
+            </a:spcBef>
+            <a:spcAft>
+              <a:spcPts val="0"/>
+            </a:spcAft>
+            <a:buClrTx/>
+            <a:buSzTx/>
+            <a:buFontTx/>
+            <a:buNone/>
+            <a:tabLst/>
+            <a:defRPr/>
+          </a:pPr>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100" b="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>console.log('result', result);</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
 </xdr:wsDr>
 </file>
 
@@ -1464,8 +5646,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
-      <selection activeCell="K34" sqref="K34"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="D28" zoomScale="77" zoomScaleNormal="77" workbookViewId="0">
+      <selection activeCell="AG67" sqref="AG67"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
